--- a/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-dificil.xlsx
@@ -3581,10 +3581,10 @@
         <v>-1.677</v>
       </c>
       <c r="H2">
-        <v>-0.462</v>
+        <v>-0.418</v>
       </c>
       <c r="I2">
-        <v>0.644</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3610,10 +3610,10 @@
         <v>0.79</v>
       </c>
       <c r="H3">
-        <v>0.206</v>
+        <v>0.227</v>
       </c>
       <c r="I3">
-        <v>0.837</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3639,10 +3639,10 @@
         <v>0.905</v>
       </c>
       <c r="H4">
-        <v>0.231</v>
+        <v>0.184</v>
       </c>
       <c r="I4">
-        <v>0.8179999999999999</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3668,10 +3668,10 @@
         <v>2.843</v>
       </c>
       <c r="H5">
-        <v>0.753</v>
+        <v>0.628</v>
       </c>
       <c r="I5">
-        <v>0.452</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3697,10 +3697,10 @@
         <v>-5.521</v>
       </c>
       <c r="H6">
-        <v>-1.431</v>
+        <v>-1.173</v>
       </c>
       <c r="I6">
-        <v>0.154</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3726,10 +3726,10 @@
         <v>-2.333</v>
       </c>
       <c r="H7">
-        <v>-0.552</v>
+        <v>-0.623</v>
       </c>
       <c r="I7">
-        <v>0.582</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3755,10 +3755,10 @@
         <v>0.855</v>
       </c>
       <c r="H8">
-        <v>0.581</v>
+        <v>0.496</v>
       </c>
       <c r="I8">
-        <v>0.5620000000000001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3784,10 +3784,10 @@
         <v>-0.6889999999999999</v>
       </c>
       <c r="H9">
-        <v>-0.458</v>
+        <v>-0.469</v>
       </c>
       <c r="I9">
-        <v>0.647</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3813,10 +3813,10 @@
         <v>-0.475</v>
       </c>
       <c r="H10">
-        <v>-0.305</v>
+        <v>-0.243</v>
       </c>
       <c r="I10">
-        <v>0.761</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3842,10 +3842,10 @@
         <v>-0.254</v>
       </c>
       <c r="H11">
-        <v>-0.162</v>
+        <v>-0.139</v>
       </c>
       <c r="I11">
-        <v>0.871</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3871,10 +3871,10 @@
         <v>2.11</v>
       </c>
       <c r="H12">
-        <v>1.352</v>
+        <v>1.138</v>
       </c>
       <c r="I12">
-        <v>0.178</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3900,10 +3900,10 @@
         <v>0.762</v>
       </c>
       <c r="H13">
-        <v>0.498</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I13">
-        <v>0.619</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3929,10 +3929,10 @@
         <v>0.001</v>
       </c>
       <c r="H14">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="I14">
-        <v>0.952</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3958,10 +3958,10 @@
         <v>0.033</v>
       </c>
       <c r="H15">
-        <v>1.53</v>
+        <v>1.666</v>
       </c>
       <c r="I15">
-        <v>0.127</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3987,10 +3987,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.629</v>
+        <v>0.496</v>
       </c>
       <c r="I16">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4016,10 +4016,10 @@
         <v>-0.02</v>
       </c>
       <c r="H17">
-        <v>-0.796</v>
+        <v>-0.66</v>
       </c>
       <c r="I17">
-        <v>0.427</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4045,10 +4045,10 @@
         <v>-0.001</v>
       </c>
       <c r="H18">
-        <v>-0.052</v>
+        <v>-0.049</v>
       </c>
       <c r="I18">
-        <v>0.958</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4074,10 +4074,10 @@
         <v>0.052</v>
       </c>
       <c r="H19">
-        <v>1.747</v>
+        <v>1.832</v>
       </c>
       <c r="I19">
-        <v>0.082</v>
+        <v>0.067</v>
       </c>
     </row>
   </sheetData>
@@ -4163,10 +4163,10 @@
         <v>3.165</v>
       </c>
       <c r="I2">
-        <v>0.794</v>
+        <v>0.862</v>
       </c>
       <c r="J2">
-        <v>0.428</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4195,10 +4195,10 @@
         <v>3.395</v>
       </c>
       <c r="I3">
-        <v>0.8090000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="J3">
-        <v>0.42</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4227,10 +4227,10 @@
         <v>0.267</v>
       </c>
       <c r="I4">
-        <v>0.062</v>
+        <v>0.042</v>
       </c>
       <c r="J4">
-        <v>0.951</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4259,10 +4259,10 @@
         <v>-6.896</v>
       </c>
       <c r="I5">
-        <v>-1.67</v>
+        <v>-1.503</v>
       </c>
       <c r="J5">
-        <v>0.096</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4291,10 +4291,10 @@
         <v>-8.385</v>
       </c>
       <c r="I6">
-        <v>-1.985</v>
+        <v>-1.882</v>
       </c>
       <c r="J6">
-        <v>0.048</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4323,10 +4323,10 @@
         <v>-2.425</v>
       </c>
       <c r="I7">
-        <v>-0.522</v>
+        <v>-0.527</v>
       </c>
       <c r="J7">
-        <v>0.602</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4355,10 +4355,10 @@
         <v>-0.542</v>
       </c>
       <c r="I8">
-        <v>-0.335</v>
+        <v>-0.382</v>
       </c>
       <c r="J8">
-        <v>0.738</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4387,10 +4387,10 @@
         <v>-2.028</v>
       </c>
       <c r="I9">
-        <v>-1.229</v>
+        <v>-0.895</v>
       </c>
       <c r="J9">
-        <v>0.22</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4419,10 +4419,10 @@
         <v>-1.012</v>
       </c>
       <c r="I10">
-        <v>-0.592</v>
+        <v>-0.42</v>
       </c>
       <c r="J10">
-        <v>0.555</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4451,10 +4451,10 @@
         <v>2.785</v>
       </c>
       <c r="I11">
-        <v>1.623</v>
+        <v>1.46</v>
       </c>
       <c r="J11">
-        <v>0.106</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4483,10 +4483,10 @@
         <v>3.325</v>
       </c>
       <c r="I12">
-        <v>1.946</v>
+        <v>1.866</v>
       </c>
       <c r="J12">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4515,10 +4515,10 @@
         <v>0.415</v>
       </c>
       <c r="I13">
-        <v>0.246</v>
+        <v>0.263</v>
       </c>
       <c r="J13">
-        <v>0.806</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4547,10 +4547,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.674</v>
+        <v>-0.653</v>
       </c>
       <c r="J14">
-        <v>0.501</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4579,10 +4579,10 @@
         <v>-0.029</v>
       </c>
       <c r="I15">
-        <v>-1.205</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="J15">
-        <v>0.229</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4611,10 +4611,10 @@
         <v>0.013</v>
       </c>
       <c r="I16">
-        <v>0.483</v>
+        <v>0.399</v>
       </c>
       <c r="J16">
-        <v>0.629</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4643,10 +4643,10 @@
         <v>-0.024</v>
       </c>
       <c r="I17">
-        <v>-0.859</v>
+        <v>-0.696</v>
       </c>
       <c r="J17">
-        <v>0.391</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4675,10 +4675,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>0.924</v>
+        <v>1.15</v>
       </c>
       <c r="J18">
-        <v>0.356</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4707,10 +4707,10 @@
         <v>0.057</v>
       </c>
       <c r="I19">
-        <v>1.745</v>
+        <v>2.189</v>
       </c>
       <c r="J19">
-        <v>0.082</v>
+        <v>0.029</v>
       </c>
     </row>
   </sheetData>
@@ -4796,10 +4796,10 @@
         <v>4.734</v>
       </c>
       <c r="I2">
-        <v>1.042</v>
+        <v>1.344</v>
       </c>
       <c r="J2">
-        <v>0.299</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4828,10 +4828,10 @@
         <v>-3.253</v>
       </c>
       <c r="I3">
-        <v>-0.678</v>
+        <v>-0.575</v>
       </c>
       <c r="J3">
-        <v>0.498</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4860,10 +4860,10 @@
         <v>-5.352</v>
       </c>
       <c r="I4">
-        <v>-1.089</v>
+        <v>-0.825</v>
       </c>
       <c r="J4">
-        <v>0.277</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4892,10 +4892,10 @@
         <v>-9.185</v>
       </c>
       <c r="I5">
-        <v>-1.953</v>
+        <v>-2.093</v>
       </c>
       <c r="J5">
-        <v>0.052</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4924,10 +4924,10 @@
         <v>-13.02</v>
       </c>
       <c r="I6">
-        <v>-2.721</v>
+        <v>-2.387</v>
       </c>
       <c r="J6">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4956,10 +4956,10 @@
         <v>-9.164</v>
       </c>
       <c r="I7">
-        <v>-1.737</v>
+        <v>-1.258</v>
       </c>
       <c r="J7">
-        <v>0.08400000000000001</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4988,10 +4988,10 @@
         <v>-1.349</v>
       </c>
       <c r="I8">
-        <v>-0.731</v>
+        <v>-0.929</v>
       </c>
       <c r="J8">
-        <v>0.466</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5020,10 +5020,10 @@
         <v>0.605</v>
       </c>
       <c r="I9">
-        <v>0.32</v>
+        <v>0.275</v>
       </c>
       <c r="J9">
-        <v>0.749</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5052,10 +5052,10 @@
         <v>1.528</v>
       </c>
       <c r="I10">
-        <v>0.783</v>
+        <v>0.67</v>
       </c>
       <c r="J10">
-        <v>0.435</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5084,10 +5084,10 @@
         <v>3.785</v>
       </c>
       <c r="I11">
-        <v>1.936</v>
+        <v>1.902</v>
       </c>
       <c r="J11">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5116,10 +5116,10 @@
         <v>4.72</v>
       </c>
       <c r="I12">
-        <v>2.431</v>
+        <v>2.362</v>
       </c>
       <c r="J12">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5148,10 +5148,10 @@
         <v>2.588</v>
       </c>
       <c r="I13">
-        <v>1.351</v>
+        <v>1.081</v>
       </c>
       <c r="J13">
-        <v>0.178</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5180,10 +5180,10 @@
         <v>-0.031</v>
       </c>
       <c r="I14">
-        <v>-1.119</v>
+        <v>-0.838</v>
       </c>
       <c r="J14">
-        <v>0.264</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5212,10 +5212,10 @@
         <v>-0.036</v>
       </c>
       <c r="I15">
-        <v>-1.31</v>
+        <v>-0.885</v>
       </c>
       <c r="J15">
-        <v>0.192</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5244,10 +5244,10 @@
         <v>0.041</v>
       </c>
       <c r="I16">
-        <v>1.371</v>
+        <v>1.249</v>
       </c>
       <c r="J16">
-        <v>0.172</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5276,10 +5276,10 @@
         <v>-0.015</v>
       </c>
       <c r="I17">
-        <v>-0.481</v>
+        <v>-0.348</v>
       </c>
       <c r="J17">
-        <v>0.631</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5308,10 +5308,10 @@
         <v>0.028</v>
       </c>
       <c r="I18">
-        <v>0.801</v>
+        <v>0.744</v>
       </c>
       <c r="J18">
-        <v>0.424</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5340,10 +5340,10 @@
         <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.293</v>
+        <v>0.274</v>
       </c>
       <c r="J19">
-        <v>0.77</v>
+        <v>0.784</v>
       </c>
     </row>
   </sheetData>
@@ -5429,10 +5429,10 @@
         <v>4.236</v>
       </c>
       <c r="I2">
-        <v>0.788</v>
+        <v>0.762</v>
       </c>
       <c r="J2">
-        <v>0.431</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5461,10 +5461,10 @@
         <v>-2.754</v>
       </c>
       <c r="I3">
-        <v>-0.486</v>
+        <v>-0.431</v>
       </c>
       <c r="J3">
-        <v>0.628</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5493,10 +5493,10 @@
         <v>-8.765000000000001</v>
       </c>
       <c r="I4">
-        <v>-1.514</v>
+        <v>-1.328</v>
       </c>
       <c r="J4">
-        <v>0.131</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5525,10 +5525,10 @@
         <v>-12.225</v>
       </c>
       <c r="I5">
-        <v>-2.205</v>
+        <v>-1.805</v>
       </c>
       <c r="J5">
-        <v>0.028</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5557,10 +5557,10 @@
         <v>-17.301</v>
       </c>
       <c r="I6">
-        <v>-3.074</v>
+        <v>-2.968</v>
       </c>
       <c r="J6">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5589,10 +5589,10 @@
         <v>-7.102</v>
       </c>
       <c r="I7">
-        <v>-1.135</v>
+        <v>-0.971</v>
       </c>
       <c r="J7">
-        <v>0.258</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5621,10 +5621,10 @@
         <v>-0.774</v>
       </c>
       <c r="I8">
-        <v>-0.355</v>
+        <v>-0.376</v>
       </c>
       <c r="J8">
-        <v>0.723</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5653,10 +5653,10 @@
         <v>0.803</v>
       </c>
       <c r="I9">
-        <v>0.36</v>
+        <v>0.338</v>
       </c>
       <c r="J9">
-        <v>0.719</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5685,10 +5685,10 @@
         <v>2.39</v>
       </c>
       <c r="I10">
-        <v>1.037</v>
+        <v>1.003</v>
       </c>
       <c r="J10">
-        <v>0.301</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5717,10 +5717,10 @@
         <v>5.087</v>
       </c>
       <c r="I11">
-        <v>2.208</v>
+        <v>1.596</v>
       </c>
       <c r="J11">
-        <v>0.028</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5749,10 +5749,10 @@
         <v>6.771</v>
       </c>
       <c r="I12">
-        <v>2.971</v>
+        <v>3.145</v>
       </c>
       <c r="J12">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5781,10 +5781,10 @@
         <v>1.538</v>
       </c>
       <c r="I13">
-        <v>0.678</v>
+        <v>0.569</v>
       </c>
       <c r="J13">
-        <v>0.499</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5813,10 +5813,10 @@
         <v>-0.024</v>
       </c>
       <c r="I14">
-        <v>-0.728</v>
+        <v>-0.575</v>
       </c>
       <c r="J14">
-        <v>0.467</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5845,10 +5845,10 @@
         <v>-0.048</v>
       </c>
       <c r="I15">
-        <v>-1.492</v>
+        <v>-1.234</v>
       </c>
       <c r="J15">
-        <v>0.137</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5877,10 +5877,10 @@
         <v>0.007</v>
       </c>
       <c r="I16">
-        <v>0.186</v>
+        <v>0.168</v>
       </c>
       <c r="J16">
-        <v>0.853</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5909,10 +5909,10 @@
         <v>-0.03</v>
       </c>
       <c r="I17">
-        <v>-0.796</v>
+        <v>-0.702</v>
       </c>
       <c r="J17">
-        <v>0.427</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5941,10 +5941,10 @@
         <v>0.027</v>
       </c>
       <c r="I18">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="J18">
-        <v>0.505</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5973,10 +5973,10 @@
         <v>0.015</v>
       </c>
       <c r="I19">
-        <v>0.335</v>
+        <v>0.387</v>
       </c>
       <c r="J19">
-        <v>0.738</v>
+        <v>0.699</v>
       </c>
     </row>
   </sheetData>
@@ -6055,10 +6055,10 @@
         <v>3.153</v>
       </c>
       <c r="H2">
-        <v>1.018</v>
+        <v>1.055</v>
       </c>
       <c r="I2">
-        <v>0.31</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6084,10 +6084,10 @@
         <v>-0.043</v>
       </c>
       <c r="H3">
-        <v>-0.013</v>
+        <v>-0.011</v>
       </c>
       <c r="I3">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6113,10 +6113,10 @@
         <v>1.84</v>
       </c>
       <c r="H4">
-        <v>0.548</v>
+        <v>0.491</v>
       </c>
       <c r="I4">
-        <v>0.584</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6142,10 +6142,10 @@
         <v>-2.122</v>
       </c>
       <c r="H5">
-        <v>-0.657</v>
+        <v>-0.544</v>
       </c>
       <c r="I5">
-        <v>0.512</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6171,10 +6171,10 @@
         <v>-7.412</v>
       </c>
       <c r="H6">
-        <v>-2.261</v>
+        <v>-1.982</v>
       </c>
       <c r="I6">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6200,10 +6200,10 @@
         <v>-2.45</v>
       </c>
       <c r="H7">
-        <v>-0.677</v>
+        <v>-0.734</v>
       </c>
       <c r="I7">
-        <v>0.499</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6229,10 +6229,10 @@
         <v>-1.062</v>
       </c>
       <c r="H8">
-        <v>-0.844</v>
+        <v>-0.861</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6258,10 +6258,10 @@
         <v>-0.046</v>
       </c>
       <c r="H9">
-        <v>-0.036</v>
+        <v>-0.03</v>
       </c>
       <c r="I9">
-        <v>0.971</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6287,10 +6287,10 @@
         <v>-1.349</v>
       </c>
       <c r="H10">
-        <v>-1.015</v>
+        <v>-0.876</v>
       </c>
       <c r="I10">
-        <v>0.311</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6316,10 +6316,10 @@
         <v>1.08</v>
       </c>
       <c r="H11">
-        <v>0.805</v>
+        <v>0.731</v>
       </c>
       <c r="I11">
-        <v>0.422</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6345,10 +6345,10 @@
         <v>2.913</v>
       </c>
       <c r="H12">
-        <v>2.196</v>
+        <v>1.837</v>
       </c>
       <c r="I12">
-        <v>0.029</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6374,10 +6374,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H13">
-        <v>0.618</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="I13">
-        <v>0.537</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6403,10 +6403,10 @@
         <v>0.002</v>
       </c>
       <c r="H14">
-        <v>0.112</v>
+        <v>0.156</v>
       </c>
       <c r="I14">
-        <v>0.911</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6432,10 +6432,10 @@
         <v>-0.012</v>
       </c>
       <c r="H15">
-        <v>-0.653</v>
+        <v>-0.49</v>
       </c>
       <c r="I15">
-        <v>0.514</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6461,10 +6461,10 @@
         <v>0.018</v>
       </c>
       <c r="H16">
-        <v>0.868</v>
+        <v>0.674</v>
       </c>
       <c r="I16">
-        <v>0.386</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6490,10 +6490,10 @@
         <v>-0.001</v>
       </c>
       <c r="H17">
-        <v>-0.05</v>
+        <v>-0.048</v>
       </c>
       <c r="I17">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6519,10 +6519,10 @@
         <v>0.017</v>
       </c>
       <c r="H18">
-        <v>0.739</v>
+        <v>0.779</v>
       </c>
       <c r="I18">
-        <v>0.461</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6548,10 +6548,10 @@
         <v>0.023</v>
       </c>
       <c r="H19">
-        <v>0.911</v>
+        <v>0.999</v>
       </c>
       <c r="I19">
-        <v>0.363</v>
+        <v>0.318</v>
       </c>
     </row>
   </sheetData>
@@ -6637,10 +6637,10 @@
         <v>5.538</v>
       </c>
       <c r="I2">
-        <v>1.491</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
-        <v>0.137</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6669,10 +6669,10 @@
         <v>0.86</v>
       </c>
       <c r="I3">
-        <v>0.219</v>
+        <v>0.167</v>
       </c>
       <c r="J3">
-        <v>0.827</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6701,10 +6701,10 @@
         <v>-0.611</v>
       </c>
       <c r="I4">
-        <v>-0.151</v>
+        <v>-0.121</v>
       </c>
       <c r="J4">
-        <v>0.88</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6733,10 +6733,10 @@
         <v>-5.123</v>
       </c>
       <c r="I5">
-        <v>-1.323</v>
+        <v>-1.032</v>
       </c>
       <c r="J5">
-        <v>0.187</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6765,10 +6765,10 @@
         <v>-8.224</v>
       </c>
       <c r="I6">
-        <v>-2.083</v>
+        <v>-1.929</v>
       </c>
       <c r="J6">
-        <v>0.038</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6800,7 +6800,7 @@
         <v>-0.914</v>
       </c>
       <c r="J7">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6829,10 +6829,10 @@
         <v>-1.391</v>
       </c>
       <c r="I8">
-        <v>-0.92</v>
+        <v>-1.047</v>
       </c>
       <c r="J8">
-        <v>0.359</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6861,10 +6861,10 @@
         <v>-0.955</v>
       </c>
       <c r="I9">
-        <v>-0.617</v>
+        <v>-0.456</v>
       </c>
       <c r="J9">
-        <v>0.538</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6893,10 +6893,10 @@
         <v>-1.26</v>
       </c>
       <c r="I10">
-        <v>-0.787</v>
+        <v>-0.662</v>
       </c>
       <c r="J10">
-        <v>0.432</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6925,10 +6925,10 @@
         <v>2.43</v>
       </c>
       <c r="I11">
-        <v>1.512</v>
+        <v>1.225</v>
       </c>
       <c r="J11">
-        <v>0.132</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6957,10 +6957,10 @@
         <v>3.061</v>
       </c>
       <c r="I12">
-        <v>1.915</v>
+        <v>1.845</v>
       </c>
       <c r="J12">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6989,10 +6989,10 @@
         <v>1.013</v>
       </c>
       <c r="I13">
-        <v>0.644</v>
+        <v>0.621</v>
       </c>
       <c r="J13">
-        <v>0.52</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7021,10 +7021,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.108</v>
+        <v>-0.152</v>
       </c>
       <c r="J14">
-        <v>0.914</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7053,10 +7053,10 @@
         <v>-0.019</v>
       </c>
       <c r="I15">
-        <v>-0.854</v>
+        <v>-0.665</v>
       </c>
       <c r="J15">
-        <v>0.394</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7085,10 +7085,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.375</v>
+        <v>0.299</v>
       </c>
       <c r="J16">
-        <v>0.708</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7117,10 +7117,10 @@
         <v>-0.032</v>
       </c>
       <c r="I17">
-        <v>-1.229</v>
+        <v>-0.983</v>
       </c>
       <c r="J17">
-        <v>0.22</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7149,10 +7149,10 @@
         <v>-0.002</v>
       </c>
       <c r="I18">
-        <v>-0.055</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="J18">
-        <v>0.956</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7181,10 +7181,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>0.856</v>
+        <v>0.889</v>
       </c>
       <c r="J19">
-        <v>0.393</v>
+        <v>0.374</v>
       </c>
     </row>
   </sheetData>
@@ -7270,10 +7270,10 @@
         <v>5.789</v>
       </c>
       <c r="I2">
-        <v>1.338</v>
+        <v>1.99</v>
       </c>
       <c r="J2">
-        <v>0.182</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7302,10 +7302,10 @@
         <v>-6.269</v>
       </c>
       <c r="I3">
-        <v>-1.375</v>
+        <v>-1.103</v>
       </c>
       <c r="J3">
-        <v>0.171</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7334,10 +7334,10 @@
         <v>-7.084</v>
       </c>
       <c r="I4">
-        <v>-1.516</v>
+        <v>-1.409</v>
       </c>
       <c r="J4">
-        <v>0.131</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7366,7 +7366,7 @@
         <v>-8.808999999999999</v>
       </c>
       <c r="I5">
-        <v>-1.964</v>
+        <v>-1.949</v>
       </c>
       <c r="J5">
         <v>0.051</v>
@@ -7398,10 +7398,10 @@
         <v>-10.926</v>
       </c>
       <c r="I6">
-        <v>-2.385</v>
+        <v>-2.258</v>
       </c>
       <c r="J6">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7430,10 +7430,10 @@
         <v>-8.454000000000001</v>
       </c>
       <c r="I7">
-        <v>-1.68</v>
+        <v>-1.441</v>
       </c>
       <c r="J7">
-        <v>0.094</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7462,10 +7462,10 @@
         <v>-1.842</v>
       </c>
       <c r="I8">
-        <v>-1.047</v>
+        <v>-1.499</v>
       </c>
       <c r="J8">
-        <v>0.296</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7494,10 +7494,10 @@
         <v>1.974</v>
       </c>
       <c r="I9">
-        <v>1.098</v>
+        <v>0.954</v>
       </c>
       <c r="J9">
-        <v>0.274</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7526,10 +7526,10 @@
         <v>1.414</v>
       </c>
       <c r="I10">
-        <v>0.759</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J10">
-        <v>0.449</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7558,10 +7558,10 @@
         <v>3.747</v>
       </c>
       <c r="I11">
-        <v>2.011</v>
+        <v>2.11</v>
       </c>
       <c r="J11">
-        <v>0.046</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7590,10 +7590,10 @@
         <v>3.659</v>
       </c>
       <c r="I12">
-        <v>1.967</v>
+        <v>2.084</v>
       </c>
       <c r="J12">
-        <v>0.05</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7622,10 +7622,10 @@
         <v>2.554</v>
       </c>
       <c r="I13">
-        <v>1.399</v>
+        <v>1.236</v>
       </c>
       <c r="J13">
-        <v>0.163</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7654,10 +7654,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.366</v>
+        <v>-0.505</v>
       </c>
       <c r="J14">
-        <v>0.715</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7686,10 +7686,10 @@
         <v>-0.02</v>
       </c>
       <c r="I15">
-        <v>-0.771</v>
+        <v>-0.672</v>
       </c>
       <c r="J15">
-        <v>0.442</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7718,10 +7718,10 @@
         <v>0.031</v>
       </c>
       <c r="I16">
-        <v>1.077</v>
+        <v>0.982</v>
       </c>
       <c r="J16">
-        <v>0.283</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7750,10 +7750,10 @@
         <v>-0.011</v>
       </c>
       <c r="I17">
-        <v>-0.358</v>
+        <v>-0.268</v>
       </c>
       <c r="J17">
-        <v>0.721</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7782,10 +7782,10 @@
         <v>0.006</v>
       </c>
       <c r="I18">
-        <v>0.175</v>
+        <v>0.232</v>
       </c>
       <c r="J18">
-        <v>0.861</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7814,10 +7814,10 @@
         <v>0.001</v>
       </c>
       <c r="I19">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="J19">
-        <v>0.968</v>
+        <v>0.969</v>
       </c>
     </row>
   </sheetData>
@@ -7910,10 +7910,10 @@
         <v>6.714</v>
       </c>
       <c r="J2">
-        <v>1.351</v>
+        <v>1.486</v>
       </c>
       <c r="K2">
-        <v>0.178</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7945,10 +7945,10 @@
         <v>-4.045</v>
       </c>
       <c r="J3">
-        <v>-0.77</v>
+        <v>-0.662</v>
       </c>
       <c r="K3">
-        <v>0.442</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7980,10 +7980,10 @@
         <v>-8.368</v>
       </c>
       <c r="J4">
-        <v>-1.559</v>
+        <v>-1.481</v>
       </c>
       <c r="K4">
-        <v>0.12</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8015,10 +8015,10 @@
         <v>-9.571999999999999</v>
       </c>
       <c r="J5">
-        <v>-1.856</v>
+        <v>-1.659</v>
       </c>
       <c r="K5">
-        <v>0.065</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8050,10 +8050,10 @@
         <v>-15.37</v>
       </c>
       <c r="J6">
-        <v>-2.94</v>
+        <v>-3.081</v>
       </c>
       <c r="K6">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8085,10 +8085,10 @@
         <v>-6.571</v>
       </c>
       <c r="J7">
-        <v>-1.133</v>
+        <v>-1.107</v>
       </c>
       <c r="K7">
-        <v>0.259</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8120,10 +8120,10 @@
         <v>-1.676</v>
       </c>
       <c r="J8">
-        <v>-0.829</v>
+        <v>-0.877</v>
       </c>
       <c r="K8">
-        <v>0.408</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8155,10 +8155,10 @@
         <v>1.578</v>
       </c>
       <c r="J9">
-        <v>0.763</v>
+        <v>0.698</v>
       </c>
       <c r="K9">
-        <v>0.446</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8190,10 +8190,10 @@
         <v>1.463</v>
       </c>
       <c r="J10">
-        <v>0.6840000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="K10">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8225,10 +8225,10 @@
         <v>3.951</v>
       </c>
       <c r="J11">
-        <v>1.844</v>
+        <v>1.669</v>
       </c>
       <c r="K11">
-        <v>0.067</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8260,10 +8260,10 @@
         <v>5.781</v>
       </c>
       <c r="J12">
-        <v>2.727</v>
+        <v>3.313</v>
       </c>
       <c r="K12">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8295,10 +8295,10 @@
         <v>1.859</v>
       </c>
       <c r="J13">
-        <v>0.884</v>
+        <v>0.788</v>
       </c>
       <c r="K13">
-        <v>0.377</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8330,10 +8330,10 @@
         <v>0.007</v>
       </c>
       <c r="J14">
-        <v>0.219</v>
+        <v>0.28</v>
       </c>
       <c r="K14">
-        <v>0.827</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8365,10 +8365,10 @@
         <v>-0.024</v>
       </c>
       <c r="J15">
-        <v>-0.788</v>
+        <v>-0.912</v>
       </c>
       <c r="K15">
-        <v>0.432</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8400,10 +8400,10 @@
         <v>-0.005</v>
       </c>
       <c r="J16">
-        <v>-0.163</v>
+        <v>-0.166</v>
       </c>
       <c r="K16">
-        <v>0.871</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8435,10 +8435,10 @@
         <v>-0.042</v>
       </c>
       <c r="J17">
-        <v>-1.212</v>
+        <v>-1.433</v>
       </c>
       <c r="K17">
-        <v>0.227</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8505,10 +8505,10 @@
         <v>0.001</v>
       </c>
       <c r="J19">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K19">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -8587,10 +8587,10 @@
         <v>-0.16</v>
       </c>
       <c r="H2">
-        <v>-0.035</v>
+        <v>-0.037</v>
       </c>
       <c r="I2">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8616,10 +8616,10 @@
         <v>2.014</v>
       </c>
       <c r="H3">
-        <v>0.419</v>
+        <v>0.387</v>
       </c>
       <c r="I3">
-        <v>0.676</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8645,10 +8645,10 @@
         <v>5.159</v>
       </c>
       <c r="H4">
-        <v>1.048</v>
+        <v>0.796</v>
       </c>
       <c r="I4">
-        <v>0.296</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8674,10 +8674,10 @@
         <v>-1.446</v>
       </c>
       <c r="H5">
-        <v>-0.304</v>
+        <v>-0.265</v>
       </c>
       <c r="I5">
-        <v>0.761</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8703,10 +8703,10 @@
         <v>-6.447</v>
       </c>
       <c r="H6">
-        <v>-1.328</v>
+        <v>-1.141</v>
       </c>
       <c r="I6">
-        <v>0.185</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8732,10 +8732,10 @@
         <v>-4.483</v>
       </c>
       <c r="H7">
-        <v>-0.844</v>
+        <v>-1.064</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8761,10 +8761,10 @@
         <v>0.57</v>
       </c>
       <c r="H8">
-        <v>0.308</v>
+        <v>0.319</v>
       </c>
       <c r="I8">
-        <v>0.758</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8790,10 +8790,10 @@
         <v>-2.075</v>
       </c>
       <c r="H9">
-        <v>-1.099</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="I9">
-        <v>0.273</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8819,10 +8819,10 @@
         <v>-2.479</v>
       </c>
       <c r="H10">
-        <v>-1.27</v>
+        <v>-0.99</v>
       </c>
       <c r="I10">
-        <v>0.205</v>
+        <v>0.322</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8848,10 +8848,10 @@
         <v>1.702</v>
       </c>
       <c r="H11">
-        <v>0.864</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I11">
-        <v>0.389</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8877,10 +8877,10 @@
         <v>2.634</v>
       </c>
       <c r="H12">
-        <v>1.342</v>
+        <v>1.23</v>
       </c>
       <c r="I12">
-        <v>0.181</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8906,10 +8906,10 @@
         <v>1.01</v>
       </c>
       <c r="H13">
-        <v>0.525</v>
+        <v>0.651</v>
       </c>
       <c r="I13">
-        <v>0.6</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8935,10 +8935,10 @@
         <v>-0.007</v>
       </c>
       <c r="H14">
-        <v>-0.248</v>
+        <v>-0.274</v>
       </c>
       <c r="I14">
-        <v>0.804</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8964,10 +8964,10 @@
         <v>0.019</v>
       </c>
       <c r="H15">
-        <v>0.6899999999999999</v>
+        <v>0.598</v>
       </c>
       <c r="I15">
-        <v>0.491</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8993,10 +8993,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.493</v>
+        <v>0.378</v>
       </c>
       <c r="I16">
-        <v>0.623</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9022,10 +9022,10 @@
         <v>-0.051</v>
       </c>
       <c r="H17">
-        <v>-1.591</v>
+        <v>-1.664</v>
       </c>
       <c r="I17">
-        <v>0.113</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9051,10 +9051,10 @@
         <v>-0.011</v>
       </c>
       <c r="H18">
-        <v>-0.326</v>
+        <v>-0.375</v>
       </c>
       <c r="I18">
-        <v>0.745</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9080,10 +9080,10 @@
         <v>0.056</v>
       </c>
       <c r="H19">
-        <v>1.501</v>
+        <v>1.544</v>
       </c>
       <c r="I19">
-        <v>0.135</v>
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
@@ -9162,10 +9162,10 @@
         <v>-2.074</v>
       </c>
       <c r="H2">
-        <v>-0.374</v>
+        <v>-0.387</v>
       </c>
       <c r="I2">
-        <v>0.709</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9191,10 +9191,10 @@
         <v>-5.884</v>
       </c>
       <c r="H3">
-        <v>-1.008</v>
+        <v>-0.857</v>
       </c>
       <c r="I3">
-        <v>0.315</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9220,10 +9220,10 @@
         <v>1.863</v>
       </c>
       <c r="H4">
-        <v>0.31</v>
+        <v>0.234</v>
       </c>
       <c r="I4">
-        <v>0.757</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9249,10 +9249,10 @@
         <v>-2.568</v>
       </c>
       <c r="H5">
-        <v>-0.444</v>
+        <v>-0.384</v>
       </c>
       <c r="I5">
-        <v>0.657</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9278,10 +9278,10 @@
         <v>-8.862</v>
       </c>
       <c r="H6">
-        <v>-1.502</v>
+        <v>-1.351</v>
       </c>
       <c r="I6">
-        <v>0.134</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9307,10 +9307,10 @@
         <v>-6.973</v>
       </c>
       <c r="H7">
-        <v>-1.08</v>
+        <v>-1.118</v>
       </c>
       <c r="I7">
-        <v>0.281</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9336,10 +9336,10 @@
         <v>1.098</v>
       </c>
       <c r="H8">
-        <v>0.488</v>
+        <v>0.455</v>
       </c>
       <c r="I8">
-        <v>0.626</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9365,10 +9365,10 @@
         <v>0.743</v>
       </c>
       <c r="H9">
-        <v>0.322</v>
+        <v>0.279</v>
       </c>
       <c r="I9">
-        <v>0.747</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9394,10 +9394,10 @@
         <v>-1.19</v>
       </c>
       <c r="H10">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="I10">
-        <v>0.618</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9423,10 +9423,10 @@
         <v>1.768</v>
       </c>
       <c r="H11">
-        <v>0.737</v>
+        <v>0.699</v>
       </c>
       <c r="I11">
-        <v>0.462</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9452,10 +9452,10 @@
         <v>3.29</v>
       </c>
       <c r="H12">
-        <v>1.378</v>
+        <v>1.42</v>
       </c>
       <c r="I12">
-        <v>0.17</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9481,10 +9481,10 @@
         <v>1.574</v>
       </c>
       <c r="H13">
-        <v>0.672</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I13">
-        <v>0.502</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9539,10 +9539,10 @@
         <v>-0.024</v>
       </c>
       <c r="H15">
-        <v>-0.705</v>
+        <v>-0.727</v>
       </c>
       <c r="I15">
-        <v>0.481</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9568,10 +9568,10 @@
         <v>0.028</v>
       </c>
       <c r="H16">
-        <v>0.747</v>
+        <v>0.695</v>
       </c>
       <c r="I16">
-        <v>0.456</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9597,10 +9597,10 @@
         <v>-0.037</v>
       </c>
       <c r="H17">
-        <v>-0.959</v>
+        <v>-0.873</v>
       </c>
       <c r="I17">
-        <v>0.338</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9626,10 +9626,10 @@
         <v>-0.028</v>
       </c>
       <c r="H18">
-        <v>-0.665</v>
+        <v>-0.678</v>
       </c>
       <c r="I18">
-        <v>0.507</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9655,10 +9655,10 @@
         <v>0.04</v>
       </c>
       <c r="H19">
-        <v>0.872</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I19">
-        <v>0.384</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -9744,10 +9744,10 @@
         <v>-2.167</v>
       </c>
       <c r="I2">
-        <v>-0.328</v>
+        <v>-0.273</v>
       </c>
       <c r="J2">
-        <v>0.743</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9776,10 +9776,10 @@
         <v>-4.312</v>
       </c>
       <c r="I3">
-        <v>-0.619</v>
+        <v>-0.721</v>
       </c>
       <c r="J3">
-        <v>0.536</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9808,10 +9808,10 @@
         <v>2.227</v>
       </c>
       <c r="I4">
-        <v>0.311</v>
+        <v>0.247</v>
       </c>
       <c r="J4">
-        <v>0.756</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9840,10 +9840,10 @@
         <v>2.56</v>
       </c>
       <c r="I5">
-        <v>0.372</v>
+        <v>0.308</v>
       </c>
       <c r="J5">
-        <v>0.71</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9872,10 +9872,10 @@
         <v>-4.013</v>
       </c>
       <c r="I6">
-        <v>-0.569</v>
+        <v>-0.533</v>
       </c>
       <c r="J6">
-        <v>0.57</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9904,10 +9904,10 @@
         <v>-3.712</v>
       </c>
       <c r="I7">
-        <v>-0.482</v>
+        <v>-0.485</v>
       </c>
       <c r="J7">
-        <v>0.631</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9936,10 +9936,10 @@
         <v>1.014</v>
       </c>
       <c r="I8">
-        <v>0.378</v>
+        <v>0.299</v>
       </c>
       <c r="J8">
-        <v>0.706</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9968,10 +9968,10 @@
         <v>0.71</v>
       </c>
       <c r="I9">
-        <v>0.259</v>
+        <v>0.304</v>
       </c>
       <c r="J9">
-        <v>0.796</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10000,10 +10000,10 @@
         <v>-0.618</v>
       </c>
       <c r="I10">
-        <v>-0.218</v>
+        <v>-0.187</v>
       </c>
       <c r="J10">
-        <v>0.828</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10032,10 +10032,10 @@
         <v>0.302</v>
       </c>
       <c r="I11">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="J11">
-        <v>0.916</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10064,10 +10064,10 @@
         <v>1.638</v>
       </c>
       <c r="I12">
-        <v>0.574</v>
+        <v>0.592</v>
       </c>
       <c r="J12">
-        <v>0.5669999999999999</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10096,10 +10096,10 @@
         <v>0.295</v>
       </c>
       <c r="I13">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="J13">
-        <v>0.916</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10128,10 +10128,10 @@
         <v>0.018</v>
       </c>
       <c r="I14">
-        <v>0.453</v>
+        <v>0.473</v>
       </c>
       <c r="J14">
-        <v>0.651</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10160,10 +10160,10 @@
         <v>-0.018</v>
       </c>
       <c r="I15">
-        <v>-0.454</v>
+        <v>-0.511</v>
       </c>
       <c r="J15">
-        <v>0.65</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10192,10 +10192,10 @@
         <v>-0.019</v>
       </c>
       <c r="I16">
-        <v>-0.43</v>
+        <v>-0.33</v>
       </c>
       <c r="J16">
-        <v>0.668</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10224,10 +10224,10 @@
         <v>-0.024</v>
       </c>
       <c r="I17">
-        <v>-0.511</v>
+        <v>-0.544</v>
       </c>
       <c r="J17">
-        <v>0.61</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10256,10 +10256,10 @@
         <v>-0.01</v>
       </c>
       <c r="I18">
-        <v>-0.206</v>
+        <v>-0.212</v>
       </c>
       <c r="J18">
-        <v>0.837</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10288,10 +10288,10 @@
         <v>0.026</v>
       </c>
       <c r="I19">
-        <v>0.473</v>
+        <v>0.501</v>
       </c>
       <c r="J19">
-        <v>0.636</v>
+        <v>0.617</v>
       </c>
     </row>
   </sheetData>
@@ -10370,10 +10370,10 @@
         <v>-1.199</v>
       </c>
       <c r="H2">
-        <v>-0.354</v>
+        <v>-0.448</v>
       </c>
       <c r="I2">
-        <v>0.723</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10399,10 +10399,10 @@
         <v>-0.489</v>
       </c>
       <c r="H3">
-        <v>-0.137</v>
+        <v>-0.116</v>
       </c>
       <c r="I3">
-        <v>0.891</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10428,10 +10428,10 @@
         <v>1.497</v>
       </c>
       <c r="H4">
-        <v>0.409</v>
+        <v>0.402</v>
       </c>
       <c r="I4">
-        <v>0.6830000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10457,10 +10457,10 @@
         <v>1.951</v>
       </c>
       <c r="H5">
-        <v>0.554</v>
+        <v>0.579</v>
       </c>
       <c r="I5">
-        <v>0.58</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10486,10 +10486,10 @@
         <v>-6.276</v>
       </c>
       <c r="H6">
-        <v>-1.748</v>
+        <v>-1.724</v>
       </c>
       <c r="I6">
-        <v>0.082</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10518,7 +10518,7 @@
         <v>-0.572</v>
       </c>
       <c r="I7">
-        <v>0.5679999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10544,10 +10544,10 @@
         <v>0.35</v>
       </c>
       <c r="H8">
-        <v>0.255</v>
+        <v>0.318</v>
       </c>
       <c r="I8">
-        <v>0.799</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10573,10 +10573,10 @@
         <v>-0.135</v>
       </c>
       <c r="H9">
-        <v>-0.096</v>
+        <v>-0.078</v>
       </c>
       <c r="I9">
-        <v>0.924</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10602,10 +10602,10 @@
         <v>-0.671</v>
       </c>
       <c r="H10">
-        <v>-0.462</v>
+        <v>-0.486</v>
       </c>
       <c r="I10">
-        <v>0.645</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10631,10 +10631,10 @@
         <v>0.04</v>
       </c>
       <c r="H11">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="I11">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10660,10 +10660,10 @@
         <v>2.45</v>
       </c>
       <c r="H12">
-        <v>1.686</v>
+        <v>1.663</v>
       </c>
       <c r="I12">
-        <v>0.093</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10689,10 +10689,10 @@
         <v>0.912</v>
       </c>
       <c r="H13">
-        <v>0.638</v>
+        <v>0.666</v>
       </c>
       <c r="I13">
-        <v>0.524</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10718,10 +10718,10 @@
         <v>0.005</v>
       </c>
       <c r="H14">
-        <v>0.243</v>
+        <v>0.296</v>
       </c>
       <c r="I14">
-        <v>0.8080000000000001</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -10747,10 +10747,10 @@
         <v>-0.007</v>
       </c>
       <c r="H15">
-        <v>-0.346</v>
+        <v>-0.34</v>
       </c>
       <c r="I15">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10776,10 +10776,10 @@
         <v>0.002</v>
       </c>
       <c r="H16">
-        <v>0.108</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
-        <v>0.914</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10805,10 +10805,10 @@
         <v>0.004</v>
       </c>
       <c r="H17">
-        <v>0.171</v>
+        <v>0.157</v>
       </c>
       <c r="I17">
-        <v>0.864</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10834,10 +10834,10 @@
         <v>0.007</v>
       </c>
       <c r="H18">
-        <v>0.257</v>
+        <v>0.249</v>
       </c>
       <c r="I18">
-        <v>0.797</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10863,10 +10863,10 @@
         <v>0.037</v>
       </c>
       <c r="H19">
-        <v>1.339</v>
+        <v>1.371</v>
       </c>
       <c r="I19">
-        <v>0.182</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
@@ -10945,10 +10945,10 @@
         <v>0.332</v>
       </c>
       <c r="H2">
-        <v>0.078</v>
+        <v>0.105</v>
       </c>
       <c r="I2">
-        <v>0.9379999999999999</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10974,10 +10974,10 @@
         <v>-0.255</v>
       </c>
       <c r="H3">
-        <v>-0.057</v>
+        <v>-0.042</v>
       </c>
       <c r="I3">
-        <v>0.955</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11003,10 +11003,10 @@
         <v>0.632</v>
       </c>
       <c r="H4">
-        <v>0.137</v>
+        <v>0.119</v>
       </c>
       <c r="I4">
-        <v>0.891</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11032,10 +11032,10 @@
         <v>-4.012</v>
       </c>
       <c r="H5">
-        <v>-0.904</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="I5">
-        <v>0.367</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11061,10 +11061,10 @@
         <v>-9.965999999999999</v>
       </c>
       <c r="H6">
-        <v>-2.209</v>
+        <v>-2.148</v>
       </c>
       <c r="I6">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11090,10 +11090,10 @@
         <v>-6.122</v>
       </c>
       <c r="H7">
-        <v>-1.234</v>
+        <v>-1.162</v>
       </c>
       <c r="I7">
-        <v>0.219</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11119,10 +11119,10 @@
         <v>0.313</v>
       </c>
       <c r="H8">
-        <v>0.18</v>
+        <v>0.283</v>
       </c>
       <c r="I8">
-        <v>0.857</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11148,10 +11148,10 @@
         <v>-0.895</v>
       </c>
       <c r="H9">
-        <v>-0.505</v>
+        <v>-0.359</v>
       </c>
       <c r="I9">
-        <v>0.614</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11177,10 +11177,10 @@
         <v>-0.847</v>
       </c>
       <c r="H10">
-        <v>-0.462</v>
+        <v>-0.438</v>
       </c>
       <c r="I10">
-        <v>0.644</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11206,10 +11206,10 @@
         <v>2.559</v>
       </c>
       <c r="H11">
-        <v>1.39</v>
+        <v>1.213</v>
       </c>
       <c r="I11">
-        <v>0.166</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11235,10 +11235,10 @@
         <v>4.085</v>
       </c>
       <c r="H12">
-        <v>2.239</v>
+        <v>2.128</v>
       </c>
       <c r="I12">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11264,10 +11264,10 @@
         <v>1.826</v>
       </c>
       <c r="H13">
-        <v>1.015</v>
+        <v>0.993</v>
       </c>
       <c r="I13">
-        <v>0.311</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11293,10 +11293,10 @@
         <v>-0.023</v>
       </c>
       <c r="H14">
-        <v>-0.885</v>
+        <v>-0.967</v>
       </c>
       <c r="I14">
-        <v>0.377</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11322,10 +11322,10 @@
         <v>-0.036</v>
       </c>
       <c r="H15">
-        <v>-1.402</v>
+        <v>-1.263</v>
       </c>
       <c r="I15">
-        <v>0.162</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11351,10 +11351,10 @@
         <v>-0.015</v>
       </c>
       <c r="H16">
-        <v>-0.541</v>
+        <v>-0.435</v>
       </c>
       <c r="I16">
-        <v>0.589</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11380,10 +11380,10 @@
         <v>-0.045</v>
       </c>
       <c r="H17">
-        <v>-1.503</v>
+        <v>-1.354</v>
       </c>
       <c r="I17">
-        <v>0.134</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11409,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="I18">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11438,10 +11438,10 @@
         <v>0.035</v>
       </c>
       <c r="H19">
-        <v>1.009</v>
+        <v>1.218</v>
       </c>
       <c r="I19">
-        <v>0.314</v>
+        <v>0.223</v>
       </c>
     </row>
   </sheetData>
@@ -11527,10 +11527,10 @@
         <v>0.162</v>
       </c>
       <c r="I2">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="J2">
-        <v>0.973</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11559,10 +11559,10 @@
         <v>-6.485</v>
       </c>
       <c r="I3">
-        <v>-1.293</v>
+        <v>-0.996</v>
       </c>
       <c r="J3">
-        <v>0.197</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11591,10 +11591,10 @@
         <v>-4.774</v>
       </c>
       <c r="I4">
-        <v>-0.926</v>
+        <v>-0.76</v>
       </c>
       <c r="J4">
-        <v>0.355</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11623,10 +11623,10 @@
         <v>-5.713</v>
       </c>
       <c r="I5">
-        <v>-1.152</v>
+        <v>-1.218</v>
       </c>
       <c r="J5">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11655,10 +11655,10 @@
         <v>-12.109</v>
       </c>
       <c r="I6">
-        <v>-2.405</v>
+        <v>-2.247</v>
       </c>
       <c r="J6">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11687,10 +11687,10 @@
         <v>-11.468</v>
       </c>
       <c r="I7">
-        <v>-2.08</v>
+        <v>-1.726</v>
       </c>
       <c r="J7">
-        <v>0.039</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11719,10 +11719,10 @@
         <v>0.11</v>
       </c>
       <c r="I8">
-        <v>0.057</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J8">
-        <v>0.955</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11751,10 +11751,10 @@
         <v>1.542</v>
       </c>
       <c r="I9">
-        <v>0.779</v>
+        <v>0.623</v>
       </c>
       <c r="J9">
-        <v>0.437</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11783,10 +11783,10 @@
         <v>1.502</v>
       </c>
       <c r="I10">
-        <v>0.734</v>
+        <v>0.641</v>
       </c>
       <c r="J10">
-        <v>0.464</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11815,10 +11815,10 @@
         <v>3.172</v>
       </c>
       <c r="I11">
-        <v>1.543</v>
+        <v>1.671</v>
       </c>
       <c r="J11">
-        <v>0.124</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11847,10 +11847,10 @@
         <v>4.679</v>
       </c>
       <c r="I12">
-        <v>2.296</v>
+        <v>2.254</v>
       </c>
       <c r="J12">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11879,10 +11879,10 @@
         <v>3.413</v>
       </c>
       <c r="I13">
-        <v>1.705</v>
+        <v>1.666</v>
       </c>
       <c r="J13">
-        <v>0.09</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11911,10 +11911,10 @@
         <v>-0.039</v>
       </c>
       <c r="I14">
-        <v>-1.364</v>
+        <v>-1.208</v>
       </c>
       <c r="J14">
-        <v>0.174</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11943,10 +11943,10 @@
         <v>-0.058</v>
       </c>
       <c r="I15">
-        <v>-2.009</v>
+        <v>-1.602</v>
       </c>
       <c r="J15">
-        <v>0.046</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11975,10 +11975,10 @@
         <v>-0.013</v>
       </c>
       <c r="I16">
-        <v>-0.415</v>
+        <v>-0.373</v>
       </c>
       <c r="J16">
-        <v>0.679</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12007,10 +12007,10 @@
         <v>-0.047</v>
       </c>
       <c r="I17">
-        <v>-1.423</v>
+        <v>-1.258</v>
       </c>
       <c r="J17">
-        <v>0.156</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12039,10 +12039,10 @@
         <v>-0.006</v>
       </c>
       <c r="I18">
-        <v>-0.161</v>
+        <v>-0.163</v>
       </c>
       <c r="J18">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12071,10 +12071,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="J19">
-        <v>0.825</v>
+        <v>0.837</v>
       </c>
     </row>
   </sheetData>
@@ -12160,10 +12160,10 @@
         <v>-0.159</v>
       </c>
       <c r="I2">
-        <v>-0.028</v>
+        <v>-0.027</v>
       </c>
       <c r="J2">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12192,10 +12192,10 @@
         <v>-5.69</v>
       </c>
       <c r="I3">
-        <v>-0.944</v>
+        <v>-0.772</v>
       </c>
       <c r="J3">
-        <v>0.346</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12224,10 +12224,10 @@
         <v>-6.888</v>
       </c>
       <c r="I4">
-        <v>-1.114</v>
+        <v>-0.994</v>
       </c>
       <c r="J4">
-        <v>0.266</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12256,10 +12256,10 @@
         <v>-5.192</v>
       </c>
       <c r="I5">
-        <v>-0.871</v>
+        <v>-0.847</v>
       </c>
       <c r="J5">
-        <v>0.384</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12288,10 +12288,10 @@
         <v>-13.203</v>
       </c>
       <c r="I6">
-        <v>-2.18</v>
+        <v>-2.232</v>
       </c>
       <c r="J6">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12320,10 +12320,10 @@
         <v>-9.875999999999999</v>
       </c>
       <c r="I7">
-        <v>-1.485</v>
+        <v>-1.295</v>
       </c>
       <c r="J7">
-        <v>0.139</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12352,10 +12352,10 @@
         <v>0.665</v>
       </c>
       <c r="I8">
-        <v>0.286</v>
+        <v>0.285</v>
       </c>
       <c r="J8">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12384,10 +12384,10 @@
         <v>1.847</v>
       </c>
       <c r="I9">
-        <v>0.777</v>
+        <v>0.638</v>
       </c>
       <c r="J9">
-        <v>0.438</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12416,10 +12416,10 @@
         <v>2.161</v>
       </c>
       <c r="I10">
-        <v>0.88</v>
+        <v>0.826</v>
       </c>
       <c r="J10">
-        <v>0.38</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12448,10 +12448,10 @@
         <v>3.185</v>
       </c>
       <c r="I11">
-        <v>1.289</v>
+        <v>1.181</v>
       </c>
       <c r="J11">
-        <v>0.199</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12480,10 +12480,10 @@
         <v>5.057</v>
       </c>
       <c r="I12">
-        <v>2.063</v>
+        <v>2.203</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12512,10 +12512,10 @@
         <v>2.676</v>
       </c>
       <c r="I13">
-        <v>1.109</v>
+        <v>1.031</v>
       </c>
       <c r="J13">
-        <v>0.269</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12544,10 +12544,10 @@
         <v>-0.041</v>
       </c>
       <c r="I14">
-        <v>-1.201</v>
+        <v>-1.006</v>
       </c>
       <c r="J14">
-        <v>0.231</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12576,10 +12576,10 @@
         <v>-0.076</v>
       </c>
       <c r="I15">
-        <v>-2.22</v>
+        <v>-1.788</v>
       </c>
       <c r="J15">
-        <v>0.027</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12608,10 +12608,10 @@
         <v>-0.064</v>
       </c>
       <c r="I16">
-        <v>-1.68</v>
+        <v>-1.253</v>
       </c>
       <c r="J16">
-        <v>0.094</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12640,10 +12640,10 @@
         <v>-0.062</v>
       </c>
       <c r="I17">
-        <v>-1.545</v>
+        <v>-1.698</v>
       </c>
       <c r="J17">
-        <v>0.124</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12672,10 +12672,10 @@
         <v>0.01</v>
       </c>
       <c r="I18">
-        <v>0.237</v>
+        <v>0.261</v>
       </c>
       <c r="J18">
-        <v>0.8129999999999999</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12704,10 +12704,10 @@
         <v>0.002</v>
       </c>
       <c r="I19">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="J19">
-        <v>0.959</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -12786,10 +12786,10 @@
         <v>2.936</v>
       </c>
       <c r="H2">
-        <v>0.879</v>
+        <v>0.864</v>
       </c>
       <c r="I2">
-        <v>0.38</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -12815,10 +12815,10 @@
         <v>-0.178</v>
       </c>
       <c r="H3">
-        <v>-0.051</v>
+        <v>-0.045</v>
       </c>
       <c r="I3">
-        <v>0.96</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -12844,10 +12844,10 @@
         <v>2.931</v>
       </c>
       <c r="H4">
-        <v>0.8110000000000001</v>
+        <v>0.646</v>
       </c>
       <c r="I4">
-        <v>0.418</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12873,10 +12873,10 @@
         <v>-1.635</v>
       </c>
       <c r="H5">
-        <v>-0.469</v>
+        <v>-0.482</v>
       </c>
       <c r="I5">
-        <v>0.639</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -12902,10 +12902,10 @@
         <v>-6.949</v>
       </c>
       <c r="H6">
-        <v>-1.962</v>
+        <v>-1.723</v>
       </c>
       <c r="I6">
-        <v>0.051</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -12931,10 +12931,10 @@
         <v>-2.18</v>
       </c>
       <c r="H7">
-        <v>-0.5590000000000001</v>
+        <v>-0.502</v>
       </c>
       <c r="I7">
-        <v>0.577</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -12960,10 +12960,10 @@
         <v>-1.241</v>
       </c>
       <c r="H8">
-        <v>-0.916</v>
+        <v>-0.9</v>
       </c>
       <c r="I8">
-        <v>0.361</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12989,10 +12989,10 @@
         <v>-0.276</v>
       </c>
       <c r="H9">
-        <v>-0.199</v>
+        <v>-0.169</v>
       </c>
       <c r="I9">
-        <v>0.843</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13018,10 +13018,10 @@
         <v>-1.376</v>
       </c>
       <c r="H10">
-        <v>-0.96</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="I10">
-        <v>0.338</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13047,10 +13047,10 @@
         <v>0.899</v>
       </c>
       <c r="H11">
-        <v>0.622</v>
+        <v>0.633</v>
       </c>
       <c r="I11">
-        <v>0.535</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13076,10 +13076,10 @@
         <v>2.739</v>
       </c>
       <c r="H12">
-        <v>1.911</v>
+        <v>1.695</v>
       </c>
       <c r="I12">
-        <v>0.057</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13105,10 +13105,10 @@
         <v>0.681</v>
       </c>
       <c r="H13">
-        <v>0.483</v>
+        <v>0.475</v>
       </c>
       <c r="I13">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13134,10 +13134,10 @@
         <v>0.003</v>
       </c>
       <c r="H14">
-        <v>0.129</v>
+        <v>0.109</v>
       </c>
       <c r="I14">
-        <v>0.898</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13163,10 +13163,10 @@
         <v>-0.015</v>
       </c>
       <c r="H15">
-        <v>-0.764</v>
+        <v>-0.519</v>
       </c>
       <c r="I15">
-        <v>0.445</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13192,10 +13192,10 @@
         <v>0.023</v>
       </c>
       <c r="H16">
-        <v>1.015</v>
+        <v>0.738</v>
       </c>
       <c r="I16">
-        <v>0.311</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13221,10 +13221,10 @@
         <v>0.007</v>
       </c>
       <c r="H17">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="I17">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13250,10 +13250,10 @@
         <v>0.028</v>
       </c>
       <c r="H18">
-        <v>1.114</v>
+        <v>1.151</v>
       </c>
       <c r="I18">
-        <v>0.267</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13279,10 +13279,10 @@
         <v>0.048</v>
       </c>
       <c r="H19">
-        <v>1.763</v>
+        <v>1.861</v>
       </c>
       <c r="I19">
-        <v>0.079</v>
+        <v>0.063</v>
       </c>
     </row>
   </sheetData>
